--- a/outputExcel/KPI.xlsx
+++ b/outputExcel/KPI.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nhanvienL1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nhanvienL2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nhanvienL3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nhanvienNoLevel" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nhanvienSVCNTS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Nhóm L1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Nhóm L2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Nhóm L3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nhóm SVCNTS" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,105 +444,100 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>employeeId</t>
+          <t>fullName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>fullName</t>
+          <t>level</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>teamName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>teamId</t>
+          <t>Loại</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>teamName</t>
+          <t>krId</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Loại</t>
+          <t>KR phòng</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>KR phòng</t>
+          <t>KR team</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>KR team</t>
+          <t>KR cá nhân</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>KR cá nhân</t>
+          <t>Công thức tính</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Công thức tính</t>
+          <t>Nguồn dữ liệu</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Nguồn dữ liệu</t>
+          <t>Định kỳ tính</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Định kỳ tính</t>
+          <t>Đơn vị tính</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Đơn vị tính</t>
+          <t>Điều kiện</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Điều kiện</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Norm</t>
+          <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>% Trọng số chỉ tiêu</t>
+          <t>Kết quả</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Kết quả</t>
+          <t>Tỷ lệ</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Tỷ lệ</t>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
@@ -551,97 +545,94 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Giang Pham</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PHG</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>BE</t>
-        </is>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>KPI</t>
+          <t>tét2321</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
+          <t>tét2321</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
+          <t>tét2321</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm </t>
+          <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Báo cáo được CBQL confirm</t>
+          <t>email</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>monthly</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="O2" t="n">
         <v>100</v>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>80</v>
+      <c r="P2" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>No data</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+      <c r="S2" t="n">
+        <v>168</v>
       </c>
       <c r="T2" t="n">
         <v>168</v>
       </c>
-      <c r="U2" t="n">
-        <v>168</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>No data</t>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>dfqwq</t>
         </is>
       </c>
     </row>
@@ -656,7 +647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,109 +663,727 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>employeeId</t>
+          <t>fullName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>fullName</t>
+          <t>level</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>teamName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>teamId</t>
+          <t>Loại</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>teamName</t>
+          <t>krId</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Loại</t>
+          <t>KR phòng</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>KR phòng</t>
+          <t>KR team</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>KR team</t>
+          <t>KR cá nhân</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>KR cá nhân</t>
+          <t>Công thức tính</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Công thức tính</t>
+          <t>Nguồn dữ liệu</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Nguồn dữ liệu</t>
+          <t>Định kỳ tính</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Định kỳ tính</t>
+          <t>Đơn vị tính</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Đơn vị tính</t>
+          <t>Điều kiện</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Điều kiện</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Norm</t>
+          <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>% Trọng số chỉ tiêu</t>
+          <t>Kết quả</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Kết quả</t>
+          <t>Tỷ lệ</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Tỷ lệ</t>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
           <t>Note</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Phung Hoang</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P2" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>168</v>
+      </c>
+      <c r="T2" t="n">
+        <v>168</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Phung Hoang</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>100</v>
+      </c>
+      <c r="P3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>168</v>
+      </c>
+      <c r="T3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Phung Hoang</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>100</v>
+      </c>
+      <c r="P4" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>168</v>
+      </c>
+      <c r="T4" t="n">
+        <v>168</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phung Hoang</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>100</v>
+      </c>
+      <c r="P5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>168</v>
+      </c>
+      <c r="T5" t="n">
+        <v>168</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phung Hoang</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>100</v>
+      </c>
+      <c r="P6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>168</v>
+      </c>
+      <c r="T6" t="n">
+        <v>168</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phung Hoang</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>100</v>
+      </c>
+      <c r="P7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>168</v>
+      </c>
+      <c r="T7" t="n">
+        <v>168</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Phung Hoang</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>168</v>
+      </c>
+      <c r="T8" t="n">
+        <v>168</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -787,7 +1396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,109 +1412,282 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>employeeId</t>
+          <t>fullName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>fullName</t>
+          <t>level</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>teamName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>teamId</t>
+          <t>Loại</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>teamName</t>
+          <t>krId</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Loại</t>
+          <t>KR phòng</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>KR phòng</t>
+          <t>KR team</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>KR team</t>
+          <t>KR cá nhân</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>KR cá nhân</t>
+          <t>Công thức tính</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Công thức tính</t>
+          <t>Nguồn dữ liệu</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Nguồn dữ liệu</t>
+          <t>Định kỳ tính</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Định kỳ tính</t>
+          <t>Đơn vị tính</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Đơn vị tính</t>
+          <t>Điều kiện</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Điều kiện</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Norm</t>
+          <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>% Trọng số chỉ tiêu</t>
+          <t>Kết quả</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Kết quả</t>
+          <t>Tỷ lệ</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Tỷ lệ</t>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
           <t>Note</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>pham</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>test kpi 4 1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>test kpi 4 1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>test kpi 4 1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P2" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>168</v>
+      </c>
+      <c r="T2" t="n">
+        <v>168</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>pham</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>test kpi 4 1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>test kpi 4 1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>test kpi 4 1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>100</v>
+      </c>
+      <c r="P3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>168</v>
+      </c>
+      <c r="T3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -918,7 +1700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,236 +1716,100 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>employeeId</t>
+          <t>fullName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>fullName</t>
+          <t>level</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>teamName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>teamId</t>
+          <t>Loại</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>teamName</t>
+          <t>krId</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Loại</t>
+          <t>KR phòng</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>KR phòng</t>
+          <t>KR team</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>KR team</t>
+          <t>KR cá nhân</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>KR cá nhân</t>
+          <t>Công thức tính</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Công thức tính</t>
+          <t>Nguồn dữ liệu</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Nguồn dữ liệu</t>
+          <t>Định kỳ tính</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Định kỳ tính</t>
+          <t>Đơn vị tính</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Đơn vị tính</t>
+          <t>Điều kiện</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Điều kiện</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Norm</t>
+          <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>% Trọng số chỉ tiêu</t>
+          <t>Kết quả</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Kết quả</t>
+          <t>Tỷ lệ</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Tỷ lệ</t>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:V1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>employeeId</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>fullName</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>teamId</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>teamName</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Loại</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>KR phòng</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>KR team</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>KR cá nhân</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Công thức tính</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Nguồn dữ liệu</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Định kỳ tính</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Đơn vị tính</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Điều kiện</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Norm</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>% Trọng số chỉ tiêu</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Kết quả</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Tỷ lệ</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>

--- a/outputExcel/KPI.xlsx
+++ b/outputExcel/KPI.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,100 +444,105 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>fullName</t>
+          <t>employeeId</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>level</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>teamName</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Loại</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>krId</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Norm</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
@@ -545,92 +550,91 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B2" t="inlineStr">
+        <v>12</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>PHG</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>4</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>tét2321</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>tét2321</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>tét2321</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>Tháng</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>100</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>78</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+      <c r="R2" t="n">
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>168</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="n">
+        <v>168</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>dfqwq</t>
         </is>
@@ -647,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,100 +667,105 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>fullName</t>
+          <t>employeeId</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>level</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>teamName</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Loại</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>krId</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Norm</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
@@ -764,626 +773,1059 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Phung Hoang</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>Tháng</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>100</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>80</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+      <c r="R2" t="n">
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>168</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>168</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Phung Hoang</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Phung Hoang</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>python</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>Tháng</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
         <v>100</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>20</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+      <c r="R3" t="n">
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>168</v>
       </c>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>168</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Phung Hoang</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Phung Hoang</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>python</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>Tháng</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
         <v>100</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>75</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+      <c r="R4" t="n">
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>168</v>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>168</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Phung Hoang</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>Tháng</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
         <v>100</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>25</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+      <c r="R5" t="n">
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>168</v>
       </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>168</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Phung Hoang</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>Tháng</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
         <v>100</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>25</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+      <c r="R6" t="n">
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>168</v>
       </c>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>168</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Phung Hoang</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>Tháng</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
         <v>100</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>25</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+      <c r="R7" t="n">
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>168</v>
       </c>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>168</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Phung Hoang</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>phh2</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi 2</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi 2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi 2</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>20</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>76</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>phh2</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 2</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 2</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
         <v>100</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q9" t="n">
+        <v>75</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>76</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>phh2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 21</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 21</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 21</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q10" t="n">
         <v>25</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>168</v>
-      </c>
-      <c r="T8" t="n">
-        <v>168</v>
-      </c>
-      <c r="U8" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>23</v>
+      </c>
+      <c r="U10" t="n">
+        <v>24</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>phh2</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>80</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>24</v>
+      </c>
+      <c r="U11" t="n">
+        <v>22</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>abcd</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>abcd kpi test 21</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>abcd kpi test 21</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>abcd kpi test 21</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>85</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>75</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>abcd</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>abcd kpi test 21</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>abcd kpi test 21</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>abcd kpi test 21</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>15</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>25</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1396,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1412,100 +1854,105 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>fullName</t>
+          <t>employeeId</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>level</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>teamName</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Loại</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>krId</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Norm</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
@@ -1513,181 +1960,179 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B2" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>pham</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>test kpi 4 1</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>test kpi 4 1</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>test kpi 4 1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>Tháng</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>100</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>80</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+      <c r="R2" t="n">
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>168</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>168</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B3" t="inlineStr">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>pham</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>test kpi 4 1</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>test kpi 4 1</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>test kpi 4 1</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>Tháng</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
         <v>100</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>20</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+      <c r="R3" t="n">
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>168</v>
       </c>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>168</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1700,7 +2145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1736,80 +2181,75 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>krId</t>
+          <t>KR phòng</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>KR phòng</t>
+          <t>KR team</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>KR team</t>
+          <t>KR cá nhân</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>KR cá nhân</t>
+          <t>Công thức tính</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Công thức tính</t>
+          <t>Nguồn dữ liệu</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Nguồn dữ liệu</t>
+          <t>Định kỳ tính</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Định kỳ tính</t>
+          <t>Đơn vị tính</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Đơn vị tính</t>
+          <t>Điều kiện</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Điều kiện</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Norm</t>
+          <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>% Trọng số chỉ tiêu</t>
+          <t>Kết quả</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Kết quả</t>
+          <t>Tỷ lệ</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Tỷ lệ</t>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>

--- a/outputExcel/KPI.xlsx
+++ b/outputExcel/KPI.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="nhóm L1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="nhóm L2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="nhóm SVCNTS" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +54,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -74,12 +75,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00A4C639"/>
+        <bgColor rgb="00A4C639"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFFF99"/>
         <bgColor rgb="00FFFF99"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -123,32 +130,139 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -514,6 +628,273 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="30" customWidth="1" min="16" max="16"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>nhóm L1</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>PHG</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="5" t="n"/>
+      <c r="L2" s="5" t="n"/>
+      <c r="M2" s="5" t="n"/>
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="5" t="n"/>
+      <c r="P2" s="5" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>KR phòng</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>KR team</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>KR cá nhân</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Công thức tính</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Nguồn dữ liệu</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>Định kỳ tính</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>Đơn vị tính</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>Điều kiện</t>
+        </is>
+      </c>
+      <c r="J3" s="7" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="K3" s="7" t="inlineStr">
+        <is>
+          <t>% Trọng số chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="L3" s="7" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="M3" s="7" t="inlineStr">
+        <is>
+          <t>Tỷ lệ</t>
+        </is>
+      </c>
+      <c r="N3" s="8" t="inlineStr">
+        <is>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+        </is>
+      </c>
+      <c r="O3" s="7" t="inlineStr">
+        <is>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
+        </is>
+      </c>
+      <c r="P3" s="6" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>tét2321</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>tét2321</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>tét2321</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H4" s="9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I4" s="9" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>78</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="P4" s="9" t="inlineStr">
+        <is>
+          <t>dfqwq</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="n"/>
+      <c r="B5" s="9" t="n"/>
+      <c r="C5" s="9" t="n"/>
+      <c r="D5" s="9" t="n"/>
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="9" t="n"/>
+      <c r="I5" s="9" t="n"/>
+      <c r="J5" s="9" t="n"/>
+      <c r="K5" s="10" t="n">
+        <v>78</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10" t="n">
+        <v>168</v>
+      </c>
+      <c r="O5" s="10" t="n">
+        <v>168</v>
+      </c>
+      <c r="P5" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -535,7 +916,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nhóm L2</t>
+          <t>nhóm L2</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -544,47 +925,47 @@
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>
       <c r="G1" s="2" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="4" t="n"/>
-      <c r="J1" s="4" t="n"/>
-      <c r="K1" s="4" t="n"/>
-      <c r="L1" s="4" t="n"/>
-      <c r="M1" s="4" t="n"/>
-      <c r="N1" s="4" t="n"/>
-      <c r="O1" s="4" t="n"/>
-      <c r="P1" s="4" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Phung Hoang</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="4" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="5" t="n"/>
+      <c r="L2" s="5" t="n"/>
+      <c r="M2" s="5" t="n"/>
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="5" t="n"/>
+      <c r="P2" s="5" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -632,32 +1013,32 @@
           <t>Điều kiện</t>
         </is>
       </c>
-      <c r="J3" s="6" t="inlineStr">
+      <c r="J3" s="7" t="inlineStr">
         <is>
           <t>Norm</t>
         </is>
       </c>
-      <c r="K3" s="6" t="inlineStr">
+      <c r="K3" s="7" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L3" s="6" t="inlineStr">
+      <c r="L3" s="7" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M3" s="6" t="inlineStr">
+      <c r="M3" s="7" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
       </c>
-      <c r="N3" s="6" t="inlineStr">
+      <c r="N3" s="8" t="inlineStr">
         <is>
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O3" s="6" t="inlineStr">
+      <c r="O3" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
@@ -669,502 +1050,486 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H4" s="9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I4" s="9" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="P4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E5" s="9" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G5" s="9" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H4" s="7" t="inlineStr">
+      <c r="H5" s="9" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr">
+      <c r="I5" s="9" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J5" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K5" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="L4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7" t="n">
+      <c r="L5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9" t="n">
         <v>168</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="O5" s="9" t="n">
         <v>168</v>
       </c>
-      <c r="P4" s="7" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="P5" s="9" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="n"/>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G6" s="9" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H6" s="9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I6" s="9" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="P6" s="9" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G7" s="9" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H7" s="9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I7" s="9" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="P7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="9" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="9" t="n"/>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="9" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
+      <c r="J8" s="9" t="n"/>
+      <c r="K8" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="L8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10" t="n"/>
+      <c r="O8" s="10" t="n"/>
+      <c r="P8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="P9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="n"/>
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="G10" s="9" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H5" s="7" t="inlineStr">
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr">
+      <c r="I10" s="9" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J10" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="K5" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7" t="n">
+      <c r="K10" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9" t="n">
         <v>168</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="O10" s="9" t="n">
         <v>168</v>
       </c>
-      <c r="P5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G6" s="7" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H6" s="7" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I6" s="7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J6" s="7" t="n">
+      <c r="P10" s="9" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="9" t="n"/>
+      <c r="I11" s="9" t="n"/>
+      <c r="J11" s="9" t="n"/>
+      <c r="K11" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="K6" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7" t="n">
-        <v>168</v>
-      </c>
-      <c r="O6" s="7" t="n">
-        <v>168</v>
-      </c>
-      <c r="P6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F7" s="7" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="K7" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="L7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7" t="n">
-        <v>168</v>
-      </c>
-      <c r="O7" s="7" t="n">
-        <v>168</v>
-      </c>
-      <c r="P7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="7" t="n"/>
-      <c r="J8" s="7" t="n"/>
-      <c r="K8" s="8" t="n">
-        <v>150</v>
-      </c>
-      <c r="L8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8" t="n"/>
-      <c r="O8" s="8" t="n"/>
-      <c r="P8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>75</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="n">
-        <v>168</v>
-      </c>
-      <c r="O9" s="7" t="n">
-        <v>168</v>
-      </c>
-      <c r="P9" s="7" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="K10" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="L10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7" t="n">
-        <v>168</v>
-      </c>
-      <c r="O10" s="7" t="n">
-        <v>168</v>
-      </c>
-      <c r="P10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-      <c r="K11" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8" t="n">
+      <c r="L11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10" t="n">
         <v>1008</v>
       </c>
-      <c r="O11" s="8" t="n">
+      <c r="O11" s="10" t="n">
         <v>1008</v>
       </c>
-      <c r="P11" s="7" t="n"/>
+      <c r="P11" s="9" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="4" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="4" t="n"/>
-      <c r="H12" s="4" t="n"/>
-      <c r="I12" s="4" t="n"/>
-      <c r="J12" s="4" t="n"/>
-      <c r="K12" s="4" t="n"/>
-      <c r="L12" s="4" t="n"/>
-      <c r="M12" s="4" t="n"/>
-      <c r="N12" s="4" t="n"/>
-      <c r="O12" s="4" t="n"/>
-      <c r="P12" s="4" t="n"/>
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="5" t="n"/>
+      <c r="L12" s="5" t="n"/>
+      <c r="M12" s="5" t="n"/>
+      <c r="N12" s="5" t="n"/>
+      <c r="O12" s="5" t="n"/>
+      <c r="P12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>phh2</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="4" t="n"/>
-      <c r="H13" s="4" t="n"/>
-      <c r="I13" s="4" t="n"/>
-      <c r="J13" s="4" t="n"/>
-      <c r="K13" s="4" t="n"/>
-      <c r="L13" s="4" t="n"/>
-      <c r="M13" s="4" t="n"/>
-      <c r="N13" s="4" t="n"/>
-      <c r="O13" s="4" t="n"/>
-      <c r="P13" s="4" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="5" t="n"/>
+      <c r="I13" s="5" t="n"/>
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="5" t="n"/>
+      <c r="L13" s="5" t="n"/>
+      <c r="M13" s="5" t="n"/>
+      <c r="N13" s="5" t="n"/>
+      <c r="O13" s="5" t="n"/>
+      <c r="P13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -1212,32 +1577,32 @@
           <t>Điều kiện</t>
         </is>
       </c>
-      <c r="J14" s="6" t="inlineStr">
+      <c r="J14" s="7" t="inlineStr">
         <is>
           <t>Norm</t>
         </is>
       </c>
-      <c r="K14" s="6" t="inlineStr">
+      <c r="K14" s="7" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L14" s="6" t="inlineStr">
+      <c r="L14" s="7" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M14" s="6" t="inlineStr">
+      <c r="M14" s="7" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
       </c>
-      <c r="N14" s="6" t="inlineStr">
+      <c r="N14" s="8" t="inlineStr">
         <is>
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O14" s="6" t="inlineStr">
+      <c r="O14" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
@@ -1249,370 +1614,362 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="9" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi</t>
+        </is>
+      </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H15" s="9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="P15" s="9" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="n"/>
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>testphhe7 kpi 2</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>testphhe7 kpi 2</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D16" s="9" t="inlineStr">
         <is>
           <t>testphhe7 kpi 2</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr">
+      <c r="F16" s="9" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="G16" s="9" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H15" s="7" t="inlineStr">
+      <c r="H16" s="9" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I15" s="7" t="inlineStr">
+      <c r="I16" s="9" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J16" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K16" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="L15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7" t="n">
+      <c r="L16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="O16" s="9" t="n">
         <v>76</v>
       </c>
-      <c r="P15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="inlineStr">
+      <c r="P16" s="9" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
+      <c r="H17" s="9" t="n"/>
+      <c r="I17" s="9" t="n"/>
+      <c r="J17" s="9" t="n"/>
+      <c r="K17" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="L17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10" t="n"/>
+      <c r="O17" s="10" t="n"/>
+      <c r="P17" s="9" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>testphhe7 kpi</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>testphhe7 kpi</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>testphhe7 kpi</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 21</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 21</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 21</t>
+        </is>
+      </c>
+      <c r="E18" s="9" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F16" s="7" t="inlineStr">
+      <c r="F18" s="9" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr">
+      <c r="G18" s="9" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H16" s="7" t="inlineStr">
+      <c r="H18" s="9" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I16" s="7" t="inlineStr">
+      <c r="I18" s="9" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J18" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="n">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7" t="n">
+      <c r="K18" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="O18" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="O16" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="P16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="n"/>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="7" t="n"/>
-      <c r="I17" s="7" t="n"/>
-      <c r="J17" s="7" t="n"/>
-      <c r="K17" s="8" t="n">
+      <c r="P18" s="9" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="n"/>
+      <c r="B19" s="9" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 2</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 2</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 2</t>
+        </is>
+      </c>
+      <c r="E19" s="9" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I19" s="9" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J19" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8" t="n"/>
-      <c r="O17" s="8" t="n"/>
-      <c r="P17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>phhe7 kpi test 2</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>phhe7 kpi test 2</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>phhe7 kpi test 2</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H18" s="7" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I18" s="7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J18" s="7" t="n">
+      <c r="K19" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>76</v>
+      </c>
+      <c r="P19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="G20" s="9" t="n"/>
+      <c r="H20" s="9" t="n"/>
+      <c r="I20" s="9" t="n"/>
+      <c r="J20" s="9" t="n"/>
+      <c r="K20" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="K18" s="7" t="n">
-        <v>75</v>
-      </c>
-      <c r="L18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7" t="n">
-        <v>75</v>
-      </c>
-      <c r="O18" s="7" t="n">
-        <v>76</v>
-      </c>
-      <c r="P18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>phhe7 kpi test 21</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>phhe7 kpi test 21</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="inlineStr">
-        <is>
-          <t>phhe7 kpi test 21</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F19" s="7" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G19" s="7" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H19" s="7" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I19" s="7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J19" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="K19" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="L19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="O19" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="P19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="n"/>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-      <c r="H20" s="7" t="n"/>
-      <c r="I20" s="7" t="n"/>
-      <c r="J20" s="7" t="n"/>
-      <c r="K20" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8" t="n">
+      <c r="L20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10" t="n">
         <v>197</v>
       </c>
-      <c r="O20" s="8" t="n">
+      <c r="O20" s="10" t="n">
         <v>198</v>
       </c>
-      <c r="P20" s="7" t="n"/>
+      <c r="P20" s="9" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="4" t="n"/>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
-      <c r="I21" s="4" t="n"/>
-      <c r="J21" s="4" t="n"/>
-      <c r="K21" s="4" t="n"/>
-      <c r="L21" s="4" t="n"/>
-      <c r="M21" s="4" t="n"/>
-      <c r="N21" s="4" t="n"/>
-      <c r="O21" s="4" t="n"/>
-      <c r="P21" s="4" t="n"/>
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
+      <c r="H21" s="5" t="n"/>
+      <c r="I21" s="5" t="n"/>
+      <c r="J21" s="5" t="n"/>
+      <c r="K21" s="5" t="n"/>
+      <c r="L21" s="5" t="n"/>
+      <c r="M21" s="5" t="n"/>
+      <c r="N21" s="5" t="n"/>
+      <c r="O21" s="5" t="n"/>
+      <c r="P21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>abcd</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
-      <c r="I22" s="4" t="n"/>
-      <c r="J22" s="4" t="n"/>
-      <c r="K22" s="4" t="n"/>
-      <c r="L22" s="4" t="n"/>
-      <c r="M22" s="4" t="n"/>
-      <c r="N22" s="4" t="n"/>
-      <c r="O22" s="4" t="n"/>
-      <c r="P22" s="4" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
+      <c r="H22" s="5" t="n"/>
+      <c r="I22" s="5" t="n"/>
+      <c r="J22" s="5" t="n"/>
+      <c r="K22" s="5" t="n"/>
+      <c r="L22" s="5" t="n"/>
+      <c r="M22" s="5" t="n"/>
+      <c r="N22" s="5" t="n"/>
+      <c r="O22" s="5" t="n"/>
+      <c r="P22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
@@ -1660,32 +2017,32 @@
           <t>Điều kiện</t>
         </is>
       </c>
-      <c r="J23" s="6" t="inlineStr">
+      <c r="J23" s="7" t="inlineStr">
         <is>
           <t>Norm</t>
         </is>
       </c>
-      <c r="K23" s="6" t="inlineStr">
+      <c r="K23" s="7" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L23" s="6" t="inlineStr">
+      <c r="L23" s="7" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M23" s="6" t="inlineStr">
+      <c r="M23" s="7" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
       </c>
-      <c r="N23" s="6" t="inlineStr">
+      <c r="N23" s="8" t="inlineStr">
         <is>
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O23" s="6" t="inlineStr">
+      <c r="O23" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
@@ -1697,171 +2054,175 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="B24" s="7" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
         <is>
           <t>abcd kpi test 21</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>abcd kpi test 21</t>
         </is>
       </c>
-      <c r="D24" s="7" t="inlineStr">
+      <c r="D24" s="9" t="inlineStr">
         <is>
           <t>abcd kpi test 21</t>
         </is>
       </c>
-      <c r="E24" s="7" t="inlineStr">
+      <c r="E24" s="9" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F24" s="7" t="inlineStr">
+      <c r="F24" s="9" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G24" s="7" t="inlineStr">
+      <c r="G24" s="9" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H24" s="7" t="inlineStr">
+      <c r="H24" s="9" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I24" s="7" t="inlineStr">
+      <c r="I24" s="9" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J24" s="7" t="n">
+      <c r="J24" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="K24" s="7" t="n">
+      <c r="K24" s="9" t="n">
         <v>85</v>
       </c>
-      <c r="L24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7" t="n">
+      <c r="L24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="O24" s="7" t="n">
+      <c r="O24" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="P24" s="7" t="n"/>
+      <c r="P24" s="9" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="inlineStr">
+      <c r="A25" s="12" t="n"/>
+      <c r="B25" s="9" t="inlineStr">
         <is>
           <t>abcd kpi test 21</t>
         </is>
       </c>
-      <c r="C25" s="7" t="inlineStr">
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>abcd kpi test 21</t>
         </is>
       </c>
-      <c r="D25" s="7" t="inlineStr">
+      <c r="D25" s="9" t="inlineStr">
         <is>
           <t>abcd kpi test 21</t>
         </is>
       </c>
-      <c r="E25" s="7" t="inlineStr">
+      <c r="E25" s="9" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F25" s="7" t="inlineStr">
+      <c r="F25" s="9" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G25" s="7" t="inlineStr">
+      <c r="G25" s="9" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H25" s="7" t="inlineStr">
+      <c r="H25" s="9" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I25" s="7" t="inlineStr">
+      <c r="I25" s="9" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J25" s="7" t="n">
+      <c r="J25" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="K25" s="7" t="n">
+      <c r="K25" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="L25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7" t="n">
+      <c r="L25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="O25" s="7" t="n">
+      <c r="O25" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="P25" s="7" t="n"/>
+      <c r="P25" s="9" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n"/>
-      <c r="B26" s="7" t="n"/>
-      <c r="C26" s="7" t="n"/>
-      <c r="D26" s="7" t="n"/>
-      <c r="E26" s="7" t="n"/>
-      <c r="F26" s="7" t="n"/>
-      <c r="G26" s="7" t="n"/>
-      <c r="H26" s="7" t="n"/>
-      <c r="I26" s="7" t="n"/>
-      <c r="J26" s="7" t="n"/>
-      <c r="K26" s="8" t="n">
+      <c r="A26" s="9" t="n"/>
+      <c r="B26" s="9" t="n"/>
+      <c r="C26" s="9" t="n"/>
+      <c r="D26" s="9" t="n"/>
+      <c r="E26" s="9" t="n"/>
+      <c r="F26" s="9" t="n"/>
+      <c r="G26" s="9" t="n"/>
+      <c r="H26" s="9" t="n"/>
+      <c r="I26" s="9" t="n"/>
+      <c r="J26" s="9" t="n"/>
+      <c r="K26" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="L26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="8" t="n">
+      <c r="L26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="O26" s="8" t="n">
+      <c r="O26" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="P26" s="7" t="n"/>
+      <c r="P26" s="9" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1888,56 +2249,56 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nhóm L0</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="4" t="n"/>
-      <c r="D1" s="4" t="n"/>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
-      <c r="I1" s="4" t="n"/>
-      <c r="J1" s="4" t="n"/>
-      <c r="K1" s="4" t="n"/>
-      <c r="L1" s="4" t="n"/>
-      <c r="M1" s="4" t="n"/>
-      <c r="N1" s="4" t="n"/>
-      <c r="O1" s="4" t="n"/>
-      <c r="P1" s="4" t="n"/>
+          <t>nhóm L0</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>giangph29</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="4" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="5" t="n"/>
+      <c r="L2" s="5" t="n"/>
+      <c r="M2" s="5" t="n"/>
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="5" t="n"/>
+      <c r="P2" s="5" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1985,32 +2346,32 @@
           <t>Điều kiện</t>
         </is>
       </c>
-      <c r="J3" s="6" t="inlineStr">
+      <c r="J3" s="7" t="inlineStr">
         <is>
           <t>Norm</t>
         </is>
       </c>
-      <c r="K3" s="6" t="inlineStr">
+      <c r="K3" s="7" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L3" s="6" t="inlineStr">
+      <c r="L3" s="7" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M3" s="6" t="inlineStr">
+      <c r="M3" s="7" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
       </c>
-      <c r="N3" s="6" t="inlineStr">
+      <c r="N3" s="8" t="inlineStr">
         <is>
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O3" s="6" t="inlineStr">
+      <c r="O3" s="7" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
@@ -2022,322 +2383,319 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>svtscn test kpi</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>svtscn test kpi</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>svtscn test kpi</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="9" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="9" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G4" s="9" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H4" s="7" t="inlineStr">
+      <c r="H4" s="9" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr">
+      <c r="I4" s="9" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="L4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7" t="n">
+      <c r="L4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="O4" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="P4" s="7" t="n"/>
+      <c r="P4" s="9" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>svtscn test kpi 1</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>svtscn test kpi 1</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>svtscn test kpi 1</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H5" s="9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I5" s="9" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O5" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="P5" s="9" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="9" t="n"/>
+      <c r="C6" s="9" t="n"/>
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="9" t="n"/>
+      <c r="H6" s="9" t="n"/>
+      <c r="I6" s="9" t="n"/>
+      <c r="J6" s="9" t="n"/>
+      <c r="K6" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10" t="n"/>
+      <c r="O6" s="10" t="n"/>
+      <c r="P6" s="9" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>svtscn test kpi 1</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>svtscn test kpi 1</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>svtscn test kpi 1</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>svtscn test kpi 2</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>svtscn test kpi 2</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>svtscn test kpi 2</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F7" s="9" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="G7" s="9" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H5" s="7" t="inlineStr">
+      <c r="H7" s="9" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr">
+      <c r="I7" s="9" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J7" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K7" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7" t="n">
+      <c r="L7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="O7" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="P5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="n"/>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="7" t="n"/>
-      <c r="J6" s="7" t="n"/>
-      <c r="K6" s="8" t="n">
+      <c r="P7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>svtscn test kpi 2 1</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>svtscn test kpi 2 1</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>svtscn test kpi 2 1</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H8" s="9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J8" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8" t="n"/>
-      <c r="O6" s="8" t="n"/>
-      <c r="P6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>svtscn test kpi 2</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>svtscn test kpi 2</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>svtscn test kpi 2</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F7" s="7" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="n">
+      <c r="K8" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="P8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="9" t="n"/>
+      <c r="J9" s="9" t="n"/>
+      <c r="K9" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="K7" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="L7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="O7" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="P7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>svtscn test kpi 2 1</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>svtscn test kpi 2 1</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>svtscn test kpi 2 1</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>75</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>80</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>80</v>
-      </c>
-      <c r="P8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="7" t="n"/>
-      <c r="J9" s="7" t="n"/>
-      <c r="K9" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8" t="n">
+      <c r="L9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10" t="n">
         <v>205</v>
       </c>
-      <c r="O9" s="8" t="n">
+      <c r="O9" s="10" t="n">
         <v>205</v>
       </c>
-      <c r="P9" s="7" t="n"/>
+      <c r="P9" s="9" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>